--- a/4. Data/R models/Error By Country/NSEI/NSEI_DM_test.xlsx
+++ b/4. Data/R models/Error By Country/NSEI/NSEI_DM_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Thesis Francisco Bettencourt\Tese Nov\4. Data\R models\Error By Country\NSEI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E86D6-F223-451C-99C8-AE6A5991989C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECED6F19-278E-43E3-A209-E55658BF7BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,6 +60,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,11 +236,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,14 +255,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Cor1" xfId="1" builtinId="30"/>
@@ -597,7 +602,7 @@
   <dimension ref="J1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,104 +613,104 @@
     <row r="1" spans="10:15" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="6">
+      <c r="K6" s="4"/>
+      <c r="L6" s="8">
         <v>4.345264406040994E-2</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="8">
         <v>7.7629243592181749E-2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="8">
         <v>8.0709034574629149E-2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="9">
         <v>0.69688784724431696</v>
       </c>
     </row>
     <row r="7" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <v>4.4540055032615412E-2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="8">
         <v>4.7038729630451158E-2</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="9">
         <v>0.25566657468461829</v>
       </c>
     </row>
     <row r="8" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="6">
+      <c r="N8" s="8">
         <v>8.6143891721651114E-2</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="9">
         <v>0.55701752215795208</v>
       </c>
     </row>
     <row r="9" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="7">
+      <c r="O9" s="9">
         <v>0.34857384517382778</v>
       </c>
     </row>
     <row r="10" spans="10:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
